--- a/data/trans_bre/P41A_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P41A_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.026027386116602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.411202036449012</v>
+        <v>2.411202036449017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002188092731399822</v>
@@ -649,7 +649,7 @@
         <v>0.0391043724398718</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05856012878612016</v>
+        <v>0.0585601287861203</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.433825684078683</v>
+        <v>-7.167532893381829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.833194878243143</v>
+        <v>-9.813168496308824</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.214600790742737</v>
+        <v>-5.90573200633597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.780899121968315</v>
+        <v>-4.26040141223932</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1270661492927101</v>
+        <v>-0.1227669521835445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1629729520785513</v>
+        <v>-0.1615611835871071</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.09647067908424153</v>
+        <v>-0.1048383755333891</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1044551879931547</v>
+        <v>-0.09501755896173204</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.978626345022679</v>
+        <v>7.777085994193326</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.71430485383211</v>
+        <v>5.689158577952012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.688403043356013</v>
+        <v>9.54342170268278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.171289194785238</v>
+        <v>8.532588100046988</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1349630487077415</v>
+        <v>0.1480871733156156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1082640545702989</v>
+        <v>0.1047171387546515</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2000141632736958</v>
+        <v>0.1956911192972938</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2457032435461724</v>
+        <v>0.2334441670732471</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.213868152901027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.510613386135496</v>
+        <v>2.510613386135507</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.155895665191673</v>
@@ -749,7 +749,7 @@
         <v>0.1460058237776296</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.06095028273581567</v>
+        <v>0.06095028273581596</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4076225626853712</v>
+        <v>0.8041603550540042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.08333870620023</v>
+        <v>-12.23130944504145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0846725195383609</v>
+        <v>-0.8022715739095913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.88946586310721</v>
+        <v>-5.209656765533023</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008284919833693031</v>
+        <v>0.01168098932650826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2011075051352466</v>
+        <v>-0.2028549356718941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0001960307616898402</v>
+        <v>-0.01572391979782812</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1089566896355072</v>
+        <v>-0.1168886222177748</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.64972736325559</v>
+        <v>15.27604281331783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.445195915237458</v>
+        <v>3.23000222538277</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.84607929377325</v>
+        <v>14.29386289230166</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.798918288499078</v>
+        <v>9.698670123260316</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3196238257645699</v>
+        <v>0.3120921272046548</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.064117224340554</v>
+        <v>0.06165412310026968</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3293138665066694</v>
+        <v>0.3147327177757936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2690134076290537</v>
+        <v>0.2570979121532664</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-5.453628970507296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-11.96481287006135</v>
+        <v>-11.96481287006136</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03091934241002151</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.371892015271625</v>
+        <v>-7.61942064136669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-19.51150538025776</v>
+        <v>-18.87353960739975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.38361937872379</v>
+        <v>-14.28845650929819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-20.6459033466686</v>
+        <v>-19.76674911709499</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1355473760731109</v>
+        <v>-0.1425122075952944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3952518756243924</v>
+        <v>-0.374734525312426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3091671336065586</v>
+        <v>-0.3229659324369202</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4573407620583585</v>
+        <v>-0.4449193592842259</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.40631983236051</v>
+        <v>9.930691670765361</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.605674542599551</v>
+        <v>-4.150688358603703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.021695612825702</v>
+        <v>3.842694395170815</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.138900360901421</v>
+        <v>-3.193525827918601</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2108988879652224</v>
+        <v>0.2041408961054801</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1025423906162288</v>
+        <v>-0.08797399688247322</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1031961068124996</v>
+        <v>0.1119123422087267</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.0765542127797703</v>
+        <v>-0.08451092836040409</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.587435947686188</v>
+        <v>-9.646431920528423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.926768217266354</v>
+        <v>-3.374682084777047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.541504574254501</v>
+        <v>-4.302574799135216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.955334536249204</v>
+        <v>-5.843654469210986</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1949409037964788</v>
+        <v>-0.1938587536848408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05852853808517355</v>
+        <v>-0.06882420485142847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09369292270159772</v>
+        <v>-0.08905203553871054</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1432477702331079</v>
+        <v>-0.1422907096088775</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.3683133125718977</v>
+        <v>-0.3479454285132529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.39713299260458</v>
+        <v>6.061020890931937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.682598690600788</v>
+        <v>4.789980380297541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.53336403292727</v>
+        <v>4.513801321950741</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.008746634552045282</v>
+        <v>-0.007223925579420343</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1384492121414957</v>
+        <v>0.1327303187409879</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1055866274990932</v>
+        <v>0.1080057162425489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1234321851301532</v>
+        <v>0.1203665739750154</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.65536945642038</v>
+        <v>-11.09975784579252</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.66828274350787</v>
+        <v>-13.91220274463291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.29030700135816</v>
+        <v>-12.21914006488367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.23755698463757</v>
+        <v>-13.07116823417903</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.229745796818016</v>
+        <v>-0.2205974846441477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3007763221434551</v>
+        <v>-0.3034756257322848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2825907755387161</v>
+        <v>-0.2796487904857461</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3107692684315054</v>
+        <v>-0.311285244552184</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.58195898493654</v>
+        <v>2.602993164141901</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.334463971128538</v>
+        <v>-2.931376106743514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.680337465637017</v>
+        <v>-1.716272610690255</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.473027392595303</v>
+        <v>-0.7976915048839915</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03954874133102039</v>
+        <v>0.06166217957646436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.06059489751567925</v>
+        <v>-0.07453618538723202</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.04311402956888086</v>
+        <v>-0.04294646538323175</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.01272616376977733</v>
+        <v>-0.02436444459083256</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-25.92837438735664</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-41.93074203239174</v>
+        <v>-41.93074203239173</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4277494095701126</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4998020443592083</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.6386802242631778</v>
+        <v>-0.6386802242631777</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-26.12990421557162</v>
+        <v>-26.69341943336897</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-27.77224108688536</v>
+        <v>-28.40746206221397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-32.68050218966402</v>
+        <v>-32.06128539271971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-55.61814953973078</v>
+        <v>-54.58050802741604</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5077644364995234</v>
+        <v>-0.5117345534670007</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5297948020289969</v>
+        <v>-0.5307932225250441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5757052206136005</v>
+        <v>-0.5645242444413952</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7187361173311394</v>
+        <v>-0.7147680448244629</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-13.65678365316691</v>
+        <v>-14.1827664958437</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-14.16497812009998</v>
+        <v>-14.68558948414377</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-19.82275578013472</v>
+        <v>-18.84368303142545</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-26.41622768963624</v>
+        <v>-27.29903400190611</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3302121693658879</v>
+        <v>-0.331704483925267</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3395575326813031</v>
+        <v>-0.3470550541647264</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.4206819762137831</v>
+        <v>-0.4073059657074913</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.52021252868322</v>
+        <v>-0.5132688061062441</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.41791532616245</v>
+        <v>-11.81869889561901</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.04235536680065</v>
+        <v>-12.90333961603169</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.5538764873339</v>
+        <v>-9.986152215828406</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.321714111424559</v>
+        <v>-9.115564331835943</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2258198045530996</v>
+        <v>-0.2310299479934815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.256678290494296</v>
+        <v>-0.2563882556992179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2043969383602555</v>
+        <v>-0.209307527709244</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.218337319551158</v>
+        <v>-0.2111977548442654</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.771066899814302</v>
+        <v>-7.085595577011564</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-8.036588371072577</v>
+        <v>-7.936742217195395</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-4.785329103147508</v>
+        <v>-4.942521655404796</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.766160705423806</v>
+        <v>-3.422017331054865</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1392508689102949</v>
+        <v>-0.1437984707064033</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.166276492140893</v>
+        <v>-0.1652956844742712</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1071815893344117</v>
+        <v>-0.1105786939030717</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.09631747708057885</v>
+        <v>-0.08522730856073478</v>
       </c>
     </row>
     <row r="25">
